--- a/biology/Médecine/Porteur_sain/Porteur_sain.xlsx
+++ b/biology/Médecine/Porteur_sain/Porteur_sain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un porteur sain est un individu affecté par une pathologie (par exemple, infectieuse) sans présenter de signes cliniques de celle-ci. Cette personne asymptomatique est susceptible, dans l'ignorance de cet état, de contaminer ses proches et relations. Un porteur sain désigne également un individu porteur d'une maladie génétique récessive mais n'en présentant pas les symptômes. Il peut en revanche transmettre cette maladie génétique à sa descendance.
 </t>
@@ -511,10 +523,12 @@
           <t>Chez l'humain</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Après guérison d’une fièvre typhoïde chronique, 2 à 5 % des individus continuent à héberger des Salmonella typhi (essentiellement au niveau de la vésicule biliaire) qui sont excrétées épisodiquement dans les selles et qui peuvent être donc à l’origine de cas secondaires[1]. Mary Mallon, également connue sous le nom de « Mary Typhoïde » (Typhoid Mary), fut la première porteuse saine reconnue du bacille de la typhoïde.
-Le 28 janvier 2020, un premier cas de contamination au SARS-CoV-2 entre individus est décelé sur sol européen, plus particulièrement en Allemagne[2]. Ce cas de transmission du virus concerne une personne asymptomatique (porteur sain sans signe physique)[3].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Après guérison d’une fièvre typhoïde chronique, 2 à 5 % des individus continuent à héberger des Salmonella typhi (essentiellement au niveau de la vésicule biliaire) qui sont excrétées épisodiquement dans les selles et qui peuvent être donc à l’origine de cas secondaires. Mary Mallon, également connue sous le nom de « Mary Typhoïde » (Typhoid Mary), fut la première porteuse saine reconnue du bacille de la typhoïde.
+Le 28 janvier 2020, un premier cas de contamination au SARS-CoV-2 entre individus est décelé sur sol européen, plus particulièrement en Allemagne. Ce cas de transmission du virus concerne une personne asymptomatique (porteur sain sans signe physique).</t>
         </is>
       </c>
     </row>
@@ -542,14 +556,51 @@
           <t>Chez les oiseaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Certains oiseaux infectés par des souches grippales TP (très pathogènes) ou HP (hautement pathogènes) peuvent excréter des virus sans signe clinique ni lésion observable à l'autopsie. On les qualifie de porteurs asymptomatiques plutôt que de porteurs sains, car ils sont réellement malades[réf. nécessaire].
 Tout en étant apparemment en bonne santé, ils peuvent excréter un certain temps ou "longtemps" le virus influenza aviaire H5N1 dans leurs fientes et le virus peut être présent et infectieux sur leurs plumes et dans les mucus excrétés par le bec ou les narines.
 Beaucoup de spécialistes ont cru jusque dans les années 2003-2004 qu'un oiseau ne pouvait pas être porteur du virus sans en mourir rapidement car ces virus HP détruisent habituellement les cellules dans lesquelles ils se reproduisent.
 Mais de 1997 à 2006, les virologues ont découvert que c’est un état bien plus fréquent qu’on ne le pensait, y compris chez les oiseaux sauvages (canards en particulier).
-Le cas du canard sauvage et du canard domestique
-Les espèces aviaires sont plus ou moins sensibles aux virus grippaux, même au sein d'un même genre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Porteur_sain</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Porteur_sain</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Chez les oiseaux</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Le cas du canard sauvage et du canard domestique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces aviaires sont plus ou moins sensibles aux virus grippaux, même au sein d'un même genre.
 Le canard était déjà réputé être un vecteur ayant une importance épidémiologique particulière voire majeure. En effet : 
 Il peut être porteur asymptomatique du virus (reconfirmé début 2006 à partir des études sur les canards chinois) (Toute sa vie, durant quelques semaines ? durant plusieurs mois ? avec des pics en fonction de la saison ou de son immunité ? ces questions font encore l'objet de recherches.)
 C'est l’oiseau aquatique le plus répandu au monde, avec l'oie (souvent en bordure de zones humides, où il peut infecter des oiseaux sauvages ou être infecté par eux.)
